--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lta-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lta-Tnfrsf14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2145213333333333</v>
+        <v>0.6836903333333334</v>
       </c>
       <c r="H2">
-        <v>0.643564</v>
+        <v>2.051071</v>
       </c>
       <c r="I2">
-        <v>0.6215559470276452</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="J2">
-        <v>0.6215559470276451</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.399171333333332</v>
+        <v>5.578493666666667</v>
       </c>
       <c r="N2">
-        <v>16.197514</v>
+        <v>16.735481</v>
       </c>
       <c r="O2">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="P2">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="Q2">
-        <v>1.158237433321778</v>
+        <v>3.813962194461223</v>
       </c>
       <c r="R2">
-        <v>10.424136899896</v>
+        <v>34.325659750151</v>
       </c>
       <c r="S2">
-        <v>0.1132894984590573</v>
+        <v>0.07697469887706218</v>
       </c>
       <c r="T2">
-        <v>0.1132894984590572</v>
+        <v>0.07697469887706221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2145213333333333</v>
+        <v>0.6836903333333334</v>
       </c>
       <c r="H3">
-        <v>0.643564</v>
+        <v>2.051071</v>
       </c>
       <c r="I3">
-        <v>0.6215559470276452</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="J3">
-        <v>0.6215559470276451</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>11.113427</v>
       </c>
       <c r="O3">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528272</v>
       </c>
       <c r="P3">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528274</v>
       </c>
       <c r="Q3">
-        <v>0.7946890593142223</v>
+        <v>2.532714203368556</v>
       </c>
       <c r="R3">
-        <v>7.152201533828</v>
+        <v>22.794427830317</v>
       </c>
       <c r="S3">
-        <v>0.07773011160795079</v>
+        <v>0.05111611054484855</v>
       </c>
       <c r="T3">
-        <v>0.07773011160795076</v>
+        <v>0.05111611054484856</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2145213333333333</v>
+        <v>0.6836903333333334</v>
       </c>
       <c r="H4">
-        <v>0.643564</v>
+        <v>2.051071</v>
       </c>
       <c r="I4">
-        <v>0.6215559470276452</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="J4">
-        <v>0.6215559470276451</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.371866333333333</v>
+        <v>24.77295966666667</v>
       </c>
       <c r="N4">
-        <v>19.115599</v>
+        <v>74.31887900000001</v>
       </c>
       <c r="O4">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493554</v>
       </c>
       <c r="P4">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493556</v>
       </c>
       <c r="Q4">
-        <v>1.366901261648444</v>
+        <v>16.93703305215656</v>
       </c>
       <c r="R4">
-        <v>12.302111354836</v>
+        <v>152.433297469409</v>
       </c>
       <c r="S4">
-        <v>0.1336993209855819</v>
+        <v>0.3418290356820829</v>
       </c>
       <c r="T4">
-        <v>0.1336993209855818</v>
+        <v>0.3418290356820831</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2145213333333333</v>
+        <v>0.6836903333333334</v>
       </c>
       <c r="H5">
-        <v>0.643564</v>
+        <v>2.051071</v>
       </c>
       <c r="I5">
-        <v>0.6215559470276452</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="J5">
-        <v>0.6215559470276451</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6319533333333333</v>
+        <v>0.4291063333333334</v>
       </c>
       <c r="N5">
-        <v>1.89586</v>
+        <v>1.287319</v>
       </c>
       <c r="O5">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749163</v>
       </c>
       <c r="P5">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749165</v>
       </c>
       <c r="Q5">
-        <v>0.1355674716711111</v>
+        <v>0.2933758520721111</v>
       </c>
       <c r="R5">
-        <v>1.22010724504</v>
+        <v>2.640382668649</v>
       </c>
       <c r="S5">
-        <v>0.01326012303792967</v>
+        <v>0.005921012511305819</v>
       </c>
       <c r="T5">
-        <v>0.01326012303792966</v>
+        <v>0.00592101251130582</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2145213333333333</v>
+        <v>0.6836903333333334</v>
       </c>
       <c r="H6">
-        <v>0.643564</v>
+        <v>2.051071</v>
       </c>
       <c r="I6">
-        <v>0.6215559470276452</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="J6">
-        <v>0.6215559470276451</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.51475866666667</v>
+        <v>19.34413</v>
       </c>
       <c r="N6">
-        <v>40.544276</v>
+        <v>58.03239</v>
       </c>
       <c r="O6">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692841</v>
       </c>
       <c r="P6">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692842</v>
       </c>
       <c r="Q6">
-        <v>2.899204048851556</v>
+        <v>13.22539468774333</v>
       </c>
       <c r="R6">
-        <v>26.092836439664</v>
+        <v>119.02855218969</v>
       </c>
       <c r="S6">
-        <v>0.2835768929371256</v>
+        <v>0.2669194715924947</v>
       </c>
       <c r="T6">
-        <v>0.2835768929371255</v>
+        <v>0.2669194715924948</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1306146666666667</v>
+        <v>0.174178</v>
       </c>
       <c r="H7">
-        <v>0.391844</v>
+        <v>0.5225340000000001</v>
       </c>
       <c r="I7">
-        <v>0.3784440529723549</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="J7">
-        <v>0.3784440529723548</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.399171333333332</v>
+        <v>5.578493666666667</v>
       </c>
       <c r="N7">
-        <v>16.197514</v>
+        <v>16.735481</v>
       </c>
       <c r="O7">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="P7">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="Q7">
-        <v>0.7052109639795555</v>
+        <v>0.9716508698726668</v>
       </c>
       <c r="R7">
-        <v>6.346898675816</v>
+        <v>8.744857828854</v>
       </c>
       <c r="S7">
-        <v>0.06897808179791105</v>
+        <v>0.01961019257891454</v>
       </c>
       <c r="T7">
-        <v>0.06897808179791104</v>
+        <v>0.01961019257891454</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1306146666666667</v>
+        <v>0.174178</v>
       </c>
       <c r="H8">
-        <v>0.391844</v>
+        <v>0.5225340000000001</v>
       </c>
       <c r="I8">
-        <v>0.3784440529723549</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="J8">
-        <v>0.3784440529723548</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>11.113427</v>
       </c>
       <c r="O8">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528272</v>
       </c>
       <c r="P8">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528274</v>
       </c>
       <c r="Q8">
-        <v>0.4838588543764445</v>
+        <v>0.6452381626686667</v>
       </c>
       <c r="R8">
-        <v>4.354729689388</v>
+        <v>5.807143464018001</v>
       </c>
       <c r="S8">
-        <v>0.04732719333726852</v>
+        <v>0.01302241887650008</v>
       </c>
       <c r="T8">
-        <v>0.04732719333726849</v>
+        <v>0.01302241887650008</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1306146666666667</v>
+        <v>0.174178</v>
       </c>
       <c r="H9">
-        <v>0.391844</v>
+        <v>0.5225340000000001</v>
       </c>
       <c r="I9">
-        <v>0.3784440529723549</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="J9">
-        <v>0.3784440529723548</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.371866333333333</v>
+        <v>24.77295966666667</v>
       </c>
       <c r="N9">
-        <v>19.115599</v>
+        <v>74.31887900000001</v>
       </c>
       <c r="O9">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493554</v>
       </c>
       <c r="P9">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493556</v>
       </c>
       <c r="Q9">
-        <v>0.832259197172889</v>
+        <v>4.314904568820667</v>
       </c>
       <c r="R9">
-        <v>7.490332774556</v>
+        <v>38.83414111938601</v>
       </c>
       <c r="S9">
-        <v>0.08140492123902884</v>
+        <v>0.08708489044557773</v>
       </c>
       <c r="T9">
-        <v>0.08140492123902882</v>
+        <v>0.08708489044557774</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1306146666666667</v>
+        <v>0.174178</v>
       </c>
       <c r="H10">
-        <v>0.391844</v>
+        <v>0.5225340000000001</v>
       </c>
       <c r="I10">
-        <v>0.3784440529723549</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="J10">
-        <v>0.3784440529723548</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6319533333333333</v>
+        <v>0.4291063333333334</v>
       </c>
       <c r="N10">
-        <v>1.89586</v>
+        <v>1.287319</v>
       </c>
       <c r="O10">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749163</v>
       </c>
       <c r="P10">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749165</v>
       </c>
       <c r="Q10">
-        <v>0.08254237398222222</v>
+        <v>0.07474088292733336</v>
       </c>
       <c r="R10">
-        <v>0.74288136584</v>
+        <v>0.6726679463460001</v>
       </c>
       <c r="S10">
-        <v>0.008073633161075684</v>
+        <v>0.001508446246659757</v>
       </c>
       <c r="T10">
-        <v>0.008073633161075683</v>
+        <v>0.001508446246659757</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.174178</v>
+      </c>
+      <c r="H11">
+        <v>0.5225340000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.1892267629264251</v>
+      </c>
+      <c r="J11">
+        <v>0.1892267629264251</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>19.34413</v>
+      </c>
+      <c r="N11">
+        <v>58.03239</v>
+      </c>
+      <c r="O11">
+        <v>0.3593615074692841</v>
+      </c>
+      <c r="P11">
+        <v>0.3593615074692842</v>
+      </c>
+      <c r="Q11">
+        <v>3.369321875140001</v>
+      </c>
+      <c r="R11">
+        <v>30.32389687626</v>
+      </c>
+      <c r="S11">
+        <v>0.06800081477877297</v>
+      </c>
+      <c r="T11">
+        <v>0.06800081477877297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.06260399999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.187812</v>
+      </c>
+      <c r="I12">
+        <v>0.06801290786578049</v>
+      </c>
+      <c r="J12">
+        <v>0.06801290786578047</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.578493666666667</v>
+      </c>
+      <c r="N12">
+        <v>16.735481</v>
+      </c>
+      <c r="O12">
+        <v>0.1036332930693284</v>
+      </c>
+      <c r="P12">
+        <v>0.1036332930693284</v>
+      </c>
+      <c r="Q12">
+        <v>0.349236017508</v>
+      </c>
+      <c r="R12">
+        <v>3.143124157572</v>
+      </c>
+      <c r="S12">
+        <v>0.00704840161335166</v>
+      </c>
+      <c r="T12">
+        <v>0.00704840161335166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.06260399999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.187812</v>
+      </c>
+      <c r="I13">
+        <v>0.06801290786578049</v>
+      </c>
+      <c r="J13">
+        <v>0.06801290786578047</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.704475666666667</v>
+      </c>
+      <c r="N13">
+        <v>11.113427</v>
+      </c>
+      <c r="O13">
+        <v>0.06881911773528272</v>
+      </c>
+      <c r="P13">
+        <v>0.06881911773528274</v>
+      </c>
+      <c r="Q13">
+        <v>0.231914994636</v>
+      </c>
+      <c r="R13">
+        <v>2.087234951724</v>
+      </c>
+      <c r="S13">
+        <v>0.004680588313934084</v>
+      </c>
+      <c r="T13">
+        <v>0.004680588313934084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="F14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G11">
-        <v>0.1306146666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.391844</v>
-      </c>
-      <c r="I11">
-        <v>0.3784440529723549</v>
-      </c>
-      <c r="J11">
-        <v>0.3784440529723548</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>13.51475866666667</v>
-      </c>
-      <c r="N11">
-        <v>40.544276</v>
-      </c>
-      <c r="O11">
-        <v>0.4562371163741963</v>
-      </c>
-      <c r="P11">
-        <v>0.4562371163741963</v>
-      </c>
-      <c r="Q11">
-        <v>1.765225698327112</v>
-      </c>
-      <c r="R11">
-        <v>15.887031284944</v>
-      </c>
-      <c r="S11">
-        <v>0.1726602234370708</v>
-      </c>
-      <c r="T11">
-        <v>0.1726602234370708</v>
+      <c r="G14">
+        <v>0.06260399999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.187812</v>
+      </c>
+      <c r="I14">
+        <v>0.06801290786578049</v>
+      </c>
+      <c r="J14">
+        <v>0.06801290786578047</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>24.77295966666667</v>
+      </c>
+      <c r="N14">
+        <v>74.31887900000001</v>
+      </c>
+      <c r="O14">
+        <v>0.4602144490493554</v>
+      </c>
+      <c r="P14">
+        <v>0.4602144490493556</v>
+      </c>
+      <c r="Q14">
+        <v>1.550886366972</v>
+      </c>
+      <c r="R14">
+        <v>13.957977302748</v>
+      </c>
+      <c r="S14">
+        <v>0.03130052292169474</v>
+      </c>
+      <c r="T14">
+        <v>0.03130052292169475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.06260399999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.187812</v>
+      </c>
+      <c r="I15">
+        <v>0.06801290786578049</v>
+      </c>
+      <c r="J15">
+        <v>0.06801290786578047</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4291063333333334</v>
+      </c>
+      <c r="N15">
+        <v>1.287319</v>
+      </c>
+      <c r="O15">
+        <v>0.007971632676749163</v>
+      </c>
+      <c r="P15">
+        <v>0.007971632676749165</v>
+      </c>
+      <c r="Q15">
+        <v>0.026863772892</v>
+      </c>
+      <c r="R15">
+        <v>0.241773956028</v>
+      </c>
+      <c r="S15">
+        <v>0.0005421739187835858</v>
+      </c>
+      <c r="T15">
+        <v>0.000542173918783586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.06260399999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.187812</v>
+      </c>
+      <c r="I16">
+        <v>0.06801290786578049</v>
+      </c>
+      <c r="J16">
+        <v>0.06801290786578047</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>19.34413</v>
+      </c>
+      <c r="N16">
+        <v>58.03239</v>
+      </c>
+      <c r="O16">
+        <v>0.3593615074692841</v>
+      </c>
+      <c r="P16">
+        <v>0.3593615074692842</v>
+      </c>
+      <c r="Q16">
+        <v>1.21101991452</v>
+      </c>
+      <c r="R16">
+        <v>10.89917923068</v>
+      </c>
+      <c r="S16">
+        <v>0.02444122109801641</v>
+      </c>
+      <c r="T16">
+        <v>0.02444122109801641</v>
       </c>
     </row>
   </sheetData>
